--- a/cham-cong-thuc-tap.xlsx
+++ b/cham-cong-thuc-tap.xlsx
@@ -24,15 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
-  <si>
-    <t>Thời gian thực tập</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>month 8</t>
+    <t>Month 9</t>
+  </si>
+  <si>
+    <t>Month 8</t>
+  </si>
+  <si>
+    <t>Time thực tập</t>
   </si>
 </sst>
 </file>
@@ -48,12 +51,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -363,7 +373,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -437,10 +447,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -476,26 +486,138 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1</v>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <v>18</v>
+      </c>
+      <c r="J15">
+        <v>19</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>24</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <v>27</v>
+      </c>
+      <c r="I17">
+        <v>28</v>
+      </c>
+      <c r="J17">
+        <v>29</v>
+      </c>
+      <c r="K17">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/cham-cong-thuc-tap.xlsx
+++ b/cham-cong-thuc-tap.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="4">
   <si>
     <t>x</t>
   </si>
@@ -363,7 +363,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,12 +513,20 @@
       <c r="J8" t="s">
         <v>0</v>
       </c>
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>31</v>
       </c>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>1</v>
@@ -554,6 +562,23 @@
       </c>
       <c r="K13">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">

--- a/cham-cong-thuc-tap.xlsx
+++ b/cham-cong-thuc-tap.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>x</t>
   </si>
@@ -363,7 +363,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,6 +580,9 @@
       <c r="F14" t="s">
         <v>0</v>
       </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15">
